--- a/EvvntProject/target/classes/data_engine/DataEngine.xlsx
+++ b/EvvntProject/target/classes/data_engine/DataEngine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t>Description</t>
   </si>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,9 +673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,14 +741,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1405,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/EvvntProject/target/classes/data_engine/DataEngine.xlsx
+++ b/EvvntProject/target/classes/data_engine/DataEngine.xlsx
@@ -20,12 +20,12 @@
     <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A13:K29"/>
+  <oleSize ref="A1:I16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -90,9 +90,6 @@
     <t>LogIn_Page</t>
   </si>
   <si>
-    <t>Wait for Some time</t>
-  </si>
-  <si>
     <t>Page Object</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Mozilla</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
     <t>LogIn to the Application</t>
   </si>
   <si>
@@ -228,26 +219,271 @@
     <t>DerbyShire</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>clickByName</t>
+  </si>
+  <si>
+    <t>Enter Account to search</t>
+  </si>
+  <si>
+    <t>filterby_name</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Click on Search Button</t>
+  </si>
+  <si>
+    <t>Click on Search result</t>
+  </si>
+  <si>
+    <t>search_result</t>
+  </si>
+  <si>
+    <t>Click on Packages tab</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>newpackage_button</t>
+  </si>
+  <si>
+    <t>Click on Add Package button</t>
+  </si>
+  <si>
+    <t>package_form</t>
+  </si>
+  <si>
+    <t>Verify Form to Add Package displayed</t>
+  </si>
+  <si>
+    <t>drop_down_inputBox</t>
+  </si>
+  <si>
+    <t>drop_down</t>
+  </si>
+  <si>
+    <t>Click on Contact Dropdown</t>
+  </si>
+  <si>
+    <t>Select Contact</t>
+  </si>
+  <si>
+    <t>contact_result</t>
+  </si>
+  <si>
+    <t>Verify Contact selected</t>
+  </si>
+  <si>
+    <t>Click on Country Dropdown</t>
+  </si>
+  <si>
+    <t>Select Country</t>
+  </si>
+  <si>
+    <t>Verify Country selected</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>country_drop_down</t>
+  </si>
+  <si>
+    <t>country_drop_down_inputBox</t>
+  </si>
+  <si>
+    <t>country_contact_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select PAYG type </t>
+  </si>
+  <si>
+    <t>dropdownSelection</t>
+  </si>
+  <si>
+    <t>Pay-As-You-Go</t>
+  </si>
+  <si>
+    <t>package_drop_down</t>
+  </si>
+  <si>
+    <t>Verify Event quantity freezed on selecting PAYG type</t>
+  </si>
+  <si>
+    <t>verifyDisabled</t>
+  </si>
+  <si>
+    <t>event_quantity</t>
+  </si>
+  <si>
+    <t>event_quantity_remaining</t>
+  </si>
+  <si>
+    <t>Verify Event quantity remaining freezed on selecting PAYG type</t>
+  </si>
+  <si>
+    <t>Verify payment method auto-set as 'Bank Account' on selecting PAYG type</t>
+  </si>
+  <si>
+    <t>verifyDropdownValue</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>paymentMethod_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Subscription type </t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Single/Bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Single/Bundle type </t>
+  </si>
+  <si>
+    <t>Verify Replenish Date becomes inactive on selecting Single/Bundle type</t>
+  </si>
+  <si>
+    <t>Verify Replenish Cycle becomes inactive on selecting Single/Bundle type</t>
+  </si>
+  <si>
+    <t>Verify payment term becomes inactive on selecting Single/Bundle type</t>
+  </si>
+  <si>
+    <t>replenish_date</t>
+  </si>
+  <si>
+    <t>payment_term</t>
+  </si>
+  <si>
+    <t>replenish_cycle</t>
+  </si>
+  <si>
+    <t>Verify Replenish Date becomes active on selecting Subscription type</t>
+  </si>
+  <si>
+    <t>Verify Replenish Cycle becomes active on selecting Subscription type</t>
+  </si>
+  <si>
+    <t>verifyEnabled</t>
+  </si>
+  <si>
+    <t>Select Broadcast Volume of 40</t>
+  </si>
+  <si>
+    <t>broadcast_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify 40 Selected </t>
+  </si>
+  <si>
+    <t>Select Market Local</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Verify Local Selected</t>
+  </si>
+  <si>
+    <t>Enter Event quantity value</t>
+  </si>
+  <si>
+    <t>Enter Cost per Event value</t>
+  </si>
+  <si>
+    <t>cost_per_event</t>
+  </si>
+  <si>
+    <t>currency_dropdown</t>
+  </si>
+  <si>
+    <t>Select GBP currency</t>
+  </si>
+  <si>
+    <t>Verify GBP currency selected</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Verify VAT checkbox detail the reason for VAT being charged/not charged</t>
+  </si>
+  <si>
+    <t>vat_msg</t>
+  </si>
+  <si>
+    <t>Select Payment method type as Bank Account</t>
+  </si>
+  <si>
+    <t>Verify Payment term field becomes activated</t>
+  </si>
+  <si>
+    <t>Enter Purchase Order Number</t>
+  </si>
+  <si>
+    <t>purchase_order_no</t>
+  </si>
+  <si>
+    <t>Select Replenish Cycle of 1 week</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>Create Package</t>
+  </si>
+  <si>
+    <t>Select Payment term</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>package_created</t>
+  </si>
+  <si>
+    <t>Verify Package created successfully</t>
+  </si>
+  <si>
+    <t>Verify Account created sucessfully</t>
+  </si>
+  <si>
+    <t>account_created_alert</t>
+  </si>
+  <si>
+    <t>CurrentTime</t>
+  </si>
+  <si>
+    <t>TC01_Login</t>
+  </si>
+  <si>
+    <t>TC02_CreateNewAccount</t>
+  </si>
+  <si>
+    <t>TC03_CreatePackage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +596,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,14 +919,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,35 +945,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -733,30 +993,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -765,21 +1027,21 @@
         <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -793,15 +1055,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -816,18 +1078,18 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -839,21 +1101,21 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -865,15 +1127,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -885,49 +1147,49 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -936,12 +1198,12 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -955,15 +1217,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -978,18 +1240,18 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1001,21 +1263,21 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -1027,15 +1289,15 @@
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -1047,272 +1309,290 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="8">
+        <f ca="1">TODAY()</f>
+        <v>42367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="16">
+        <f ca="1">NOW()</f>
+        <v>42367.824756481481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B17" s="2">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f ca="1">CONCATENATE("TestAccount_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
+        <v>TestAccount_29/12/2015_19:47:38.96</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B19" s="2">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="8" t="str">
-        <f ca="1">CONCATENATE("Test Acount_",TEXT(D30,"DD/MM/YYYY"))</f>
-        <v>Test Acount_23/12/2015</v>
+      <c r="G19" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B20" s="2">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B21" s="2">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="str">
-        <f ca="1">CONCATENATE("TestContact",TEXT(D30,"DD/MM/YYYY"))</f>
-        <v>TestContact23/12/2015</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B25" s="2">
         <v>17</v>
@@ -1321,74 +1601,1250 @@
         <v>59</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f ca="1">CONCATENATE(TEXT(D30,"DD/MM/YYYY"),"@evvnt.com")</f>
-        <v>23/12/2015@evvnt.com</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f ca="1">CONCATENATE("TestContact_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
+        <v>TestContact_29/12/2015_19:47:38.96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="2">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f ca="1">CONCATENATE(TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"hh"),"_",TEXT(M15,"ss"),"@evvnt.com")</f>
+        <v>29/12/2015_19_39@evvnt.com</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="2">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="2">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="15">
+        <f ca="1">NOW()</f>
+        <v>42367.824756481481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="14" t="str">
+        <f ca="1">G18</f>
+        <v>TestAccount_29/12/2015_19:47:38.96</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="2">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="2">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f ca="1">G26</f>
+        <v>TestContact_29/12/2015_19:47:38.96</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="2">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="2">
+        <v>19</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="2">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="2">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="2">
+        <v>23</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2">
+        <v>24</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="2">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2">
+        <v>26</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="2">
+        <v>27</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="12">
+        <v>40</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="2">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="12">
+        <v>40</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="8">
-        <f ca="1">TODAY()</f>
-        <v>42361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2">
+        <v>31</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2">
+        <v>33</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2">
+        <v>34</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="2">
+        <v>35</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="2">
+        <v>36</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="2">
+        <v>37</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="2">
+        <v>38</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2">
+        <v>39</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="1">
+        <v>12345</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="2">
+        <v>40</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="2">
+        <v>41</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2">
+        <v>46</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2">
+        <v>47</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 E23:E26 E16:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 E15:E20 E25:E35 E37:E41 E77">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15">
-      <formula1>INDIRECT(D14)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E36">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43 F2:F21 F25:F41 F77">
+      <formula1>Actions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 D25:D41 D77">
       <formula1>Page_Name</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
-      <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="G25" r:id="rId3" display="12_22_2015@evvnt.com"/>
+    <hyperlink ref="G33" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1400,12 +2856,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1441,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1452,10 +2908,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1464,7 +2920,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
@@ -1473,7 +2929,9 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1481,21 +2939,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
@@ -1504,7 +2968,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/EvvntProject/target/classes/data_engine/DataEngine.xlsx
+++ b/EvvntProject/target/classes/data_engine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5985" tabRatio="535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="5985" tabRatio="535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:I16"/>
+  <oleSize ref="A4:G20"/>
 </workbook>
 </file>
 
@@ -528,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,12 +575,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -611,6 +624,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -919,7 +934,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +982,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -978,10 +993,10 @@
       <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -995,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1393,7 @@
       </c>
       <c r="M15" s="16">
         <f ca="1">NOW()</f>
-        <v>42367.824756481481</v>
+        <v>42367.844582754631</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1448,7 +1463,7 @@
       </c>
       <c r="G18" s="17" t="str">
         <f ca="1">CONCATENATE("TestAccount_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestAccount_29/12/2015_19:47:38.96</v>
+        <v>TestAccount_29/12/2015_20:16:11.95</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>29</v>
@@ -1629,7 +1644,7 @@
       </c>
       <c r="G26" s="2" t="str">
         <f ca="1">CONCATENATE("TestContact_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestContact_29/12/2015_19:47:38.96</v>
+        <v>TestContact_29/12/2015_20:16:11.95</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>29</v>
@@ -1654,7 +1669,7 @@
       </c>
       <c r="G27" s="7" t="str">
         <f ca="1">CONCATENATE(TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"hh"),"_",TEXT(M15,"ss"),"@evvnt.com")</f>
-        <v>29/12/2015_19_39@evvnt.com</v>
+        <v>29/12/2015_20_12@evvnt.com</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>29</v>
@@ -1870,7 +1885,7 @@
       </c>
       <c r="M36" s="15">
         <f ca="1">NOW()</f>
-        <v>42367.824756481481</v>
+        <v>42367.844582754631</v>
       </c>
     </row>
     <row r="37" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1933,7 @@
       </c>
       <c r="G38" s="14" t="str">
         <f ca="1">G18</f>
-        <v>TestAccount_29/12/2015_19:47:38.96</v>
+        <v>TestAccount_29/12/2015_20:16:11.95</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>29</v>
@@ -2079,7 +2094,7 @@
       </c>
       <c r="G45" s="2" t="str">
         <f ca="1">G26</f>
-        <v>TestContact_29/12/2015_19:47:38.96</v>
+        <v>TestContact_29/12/2015_20:16:11.95</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>29</v>

--- a/EvvntProject/target/classes/data_engine/DataEngine.xlsx
+++ b/EvvntProject/target/classes/data_engine/DataEngine.xlsx
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="M15" s="16">
         <f ca="1">NOW()</f>
-        <v>42367.844582754631</v>
+        <v>42367.850544212961</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G18" s="17" t="str">
         <f ca="1">CONCATENATE("TestAccount_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestAccount_29/12/2015_20:16:11.95</v>
+        <v>TestAccount_29/12/2015_20:24:47.02</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>29</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G26" s="2" t="str">
         <f ca="1">CONCATENATE("TestContact_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestContact_29/12/2015_20:16:11.95</v>
+        <v>TestContact_29/12/2015_20:24:47.02</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>29</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G27" s="7" t="str">
         <f ca="1">CONCATENATE(TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"hh"),"_",TEXT(M15,"ss"),"@evvnt.com")</f>
-        <v>29/12/2015_20_12@evvnt.com</v>
+        <v>29/12/2015_20_47@evvnt.com</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>29</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M36" s="15">
         <f ca="1">NOW()</f>
-        <v>42367.844582754631</v>
+        <v>42367.850544212961</v>
       </c>
     </row>
     <row r="37" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G38" s="14" t="str">
         <f ca="1">G18</f>
-        <v>TestAccount_29/12/2015_20:16:11.95</v>
+        <v>TestAccount_29/12/2015_20:24:47.02</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>29</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G45" s="2" t="str">
         <f ca="1">G26</f>
-        <v>TestContact_29/12/2015_20:16:11.95</v>
+        <v>TestContact_29/12/2015_20:24:47.02</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>29</v>

--- a/EvvntProject/target/classes/data_engine/DataEngine.xlsx
+++ b/EvvntProject/target/classes/data_engine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="5985" tabRatio="535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="5985" tabRatio="535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A4:G20"/>
+  <oleSize ref="A4:E20"/>
 </workbook>
 </file>
 
@@ -934,7 +934,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,13 +1010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="M14" s="8">
         <f ca="1">TODAY()</f>
-        <v>42367</v>
+        <v>42368</v>
       </c>
     </row>
     <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="M15" s="16">
         <f ca="1">NOW()</f>
-        <v>42367.850544212961</v>
+        <v>42368.713041087962</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G18" s="17" t="str">
         <f ca="1">CONCATENATE("TestAccount_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestAccount_29/12/2015_20:24:47.02</v>
+        <v>TestAccount_30/12/2015_17:06:46.75</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>29</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G26" s="2" t="str">
         <f ca="1">CONCATENATE("TestContact_",TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"h:mm:ss.00"))</f>
-        <v>TestContact_29/12/2015_20:24:47.02</v>
+        <v>TestContact_30/12/2015_17:06:46.75</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>29</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G27" s="7" t="str">
         <f ca="1">CONCATENATE(TEXT(M14,"DD/MM/YYYY"),"_",TEXT(M15,"hh"),"_",TEXT(M15,"ss"),"@evvnt.com")</f>
-        <v>29/12/2015_20_47@evvnt.com</v>
+        <v>30/12/2015_17_47@evvnt.com</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>29</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M36" s="15">
         <f ca="1">NOW()</f>
-        <v>42367.850544212961</v>
+        <v>42368.713041087962</v>
       </c>
     </row>
     <row r="37" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G38" s="14" t="str">
         <f ca="1">G18</f>
-        <v>TestAccount_29/12/2015_20:24:47.02</v>
+        <v>TestAccount_30/12/2015_17:06:46.75</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>29</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G45" s="2" t="str">
         <f ca="1">G26</f>
-        <v>TestContact_29/12/2015_20:24:47.02</v>
+        <v>TestContact_30/12/2015_17:06:46.75</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>29</v>
